--- a/src/main/resources/template/excel/export/GoodsBrandReport.xlsx
+++ b/src/main/resources/template/excel/export/GoodsBrandReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22290" windowHeight="8130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21915" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>商品品牌查询</t>
+    <t>品牌导出</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -86,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -187,7 +187,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -503,7 +503,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
